--- a/1kappa/unauthorized_tagger_dataframe_kappa.xlsx
+++ b/1kappa/unauthorized_tagger_dataframe_kappa.xlsx
@@ -22,16 +22,16 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>tdeters@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhao393@purdue.edu</t>
+  </si>
+  <si>
+    <t>chen1331@purdue.edu</t>
+  </si>
+  <si>
     <t>lin551@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhao393@purdue.edu</t>
-  </si>
-  <si>
-    <t>chen1331@purdue.edu</t>
-  </si>
-  <si>
-    <t>tdeters@purdue.edu</t>
   </si>
 </sst>
 </file>
